--- a/Planilha_matricula_nome_cep.xlsx
+++ b/Planilha_matricula_nome_cep.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago\Desktop\Formação em Dados\Projeto prático\Base de Dados-20240603T234701Z-001\Base de Dados\base\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F003C3-154B-45ED-BBDC-594D8E54C355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -514,7 +520,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,10 +561,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,14 +576,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -615,7 +624,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -687,7 +696,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -860,21 +869,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -885,1004 +894,1004 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>23001</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>23002</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>23003</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>23008</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>23009</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>23010</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>23013</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>23014</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>23015</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>23016</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>23017</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>23019</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>23020</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>23021</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>23025</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>23026</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>23027</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>23029</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>23031</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>23032</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>23033</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>23036</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23038</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23039</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>23040</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>23044</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>23045</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>23047</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>23049</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>23050</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>23051</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>23052</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>23056</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>23057</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>23058</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>23059</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>23061</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>23062</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>23066</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>23068</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>23070</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>23072</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>23073</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>23076</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>23077</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>23088</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>23091</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>23092</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>23093</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>23094</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>23098</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>23105</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="2" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>23109</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>23110</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>23111</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>23112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>23114</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>23115</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>23116</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>23118</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>24001</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>24002</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>24003</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>24004</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>24005</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>24006</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>24007</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>24008</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>24009</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>24010</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>24011</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>24012</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>24013</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>24014</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>24017</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>24018</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>24019</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>24020</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>24021</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>24022</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>24023</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>24024</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>24025</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>24027</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>24028</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>24029</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>24030</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="2" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>24031</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>24032</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>24033</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>24034</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -1893,36 +1902,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
